--- a/resultado_vendas.xlsx
+++ b/resultado_vendas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,70 +445,95 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>safra</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>data</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cliente</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t># sacas</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>entrega</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>diferencial</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>observações</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>contrato_lote</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>peneira</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>padrao</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>pagamento</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>recebimento</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>preço final (R$/sc)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>nf</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>futuro_mais_próximo</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Contrato</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Fechamento (usx/lb)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Fechamento (US$/sc)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Fechamento (R$/sc)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Resultado Mil USD</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Resultado Mil BRL</t>
         </is>
@@ -517,123 +542,173 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>018/24</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45478</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2023</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>23/01/24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>320</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45536</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DANIEL CARVALHO</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NY + 10</t>
+          <t>10/07/24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C423/24</t>
+          <t>BRL 1250</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>KCU24.NYB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>KCU24.NYB</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>265.7000122070312</v>
-      </c>
-      <c r="L2" t="n">
-        <v>351.4609545222701</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1933.035249872486</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>116.7003808810761</v>
-      </c>
-      <c r="O2" t="n">
-        <v>641.8520948459185</v>
+        <v>1247.13</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.304572362151506</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>019/24</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45478</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2023</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>27/02/24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>320</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45597</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CSG MARKETING LTDA</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NY + 10</t>
+          <t>10/07/24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>C424/24</t>
+          <t>BRL 1250</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1249.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>267</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>KCZ24.NYB</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L3" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N3" t="n">
-        <v>114.9014088216475</v>
-      </c>
-      <c r="O3" t="n">
-        <v>631.9577485190613</v>
+      <c r="Q3" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.609144724303013</v>
+      </c>
+      <c r="T3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -642,1001 +717,2342 @@
           <t>020/24</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>45481</v>
+      <c r="B4" t="n">
+        <v>2024</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>08/07/24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>EXPOCACCER - COOP CAFEICULTORES DO CERRADO</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>138</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45485</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EXPOCACCER</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>138.12</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>12/07/24</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>BRL 1520</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>GS2751-00=16 / GS3003-00=5 / GS3061-02=11 / GS3062-03=19 / GS3066-00=1 / GS3069-02=7 / GS3070-00=17 / GS3070-02=2 / GS315-00=46 / GS3194-01=13 / L9308-00 ****   dollar R$5,49 **** DS R$10,00 *** IS R$5,00</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>KCU24.NYB</t>
+          <t>GS2751-00=16…</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>KCU24.NYB</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>265.7000122070312</v>
-      </c>
-      <c r="L4" t="n">
-        <v>351.4609545222701</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1933.035249872486</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>45547</v>
       </c>
       <c r="N4" t="n">
-        <v>38.13818181818181</v>
-      </c>
-      <c r="O4" t="n">
-        <v>209.76</v>
+        <v>1518.13</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S4" t="n">
+        <v>38.70619621470051</v>
+      </c>
+      <c r="T4" t="n">
+        <v>209.9424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>021/24</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45505</v>
+          <t>018/24</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2024</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>05/07/24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>XORXIOS, S.L.</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>320</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>45566</v>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NY + 25</t>
+          <t>19/10/24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>16/18 SCA84    -   DOCUMENTOS REQUIRED: 3 INVOICES, 3 ORIGINAL BL, ORIGIIN CERTIFICATE, PHITOSSANITARY CERTIFICATE, WEIGHT CERTIFICATE</t>
+          <t>NY + 10</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>C423/24</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PETRUS</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>BL + 60</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>KCZ24.NYB</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L5" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N5" t="n">
-        <v>121.250721972572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>666.8789708491458</v>
+      <c r="Q5" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S5" t="n">
+        <v>111.8537333421195</v>
+      </c>
+      <c r="T5" t="n">
+        <v>606.6946257531207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>022/24</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45523</v>
+          <t>019/24</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2024</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>05/07/24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>320</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>45536</v>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>19/10/24</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>NY + 10</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>C 462/24 ** FIXAÇÃO DEZ 24  ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>KCU24.NYB</t>
+          <t>C424/24</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>KCU24.NYB</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>265.7000122070312</v>
-      </c>
-      <c r="L6" t="n">
-        <v>351.4609545222701</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1933.035249872486</v>
-      </c>
-      <c r="N6" t="n">
-        <v>116.7003808810761</v>
-      </c>
-      <c r="O6" t="n">
-        <v>641.8520948459185</v>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PETRUS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>BL + 60</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S6" t="n">
+        <v>111.8537333421195</v>
+      </c>
+      <c r="T6" t="n">
+        <v>606.6946257531207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>023/24</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45523</v>
+          <t>022/24</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2024</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>320</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>45658</v>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>19/10/24</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>NY + 10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>C 463/24 ** FIXAÇÃO  MAR 25 ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>KCH25.NYB</t>
+          <t>C 462/24</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>KCH25.NYB</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>343.2597422218544</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1887.928582220199</v>
-      </c>
-      <c r="N7" t="n">
-        <v>114.075992944943</v>
-      </c>
-      <c r="O7" t="n">
-        <v>627.4179611971867</v>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BENEDICTUS</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>BL+60</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S7" t="n">
+        <v>111.8537333421195</v>
+      </c>
+      <c r="T7" t="n">
+        <v>606.6946257531207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>024/24</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45523</v>
+          <t>029/24</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2024</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>320</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>45597</v>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NY + 10</t>
+          <t>28/02/25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>C 464/24 ** FIXAÇÃO DEZ 24 ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
+          <t>NY -28</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>KCZ24.NYB</t>
+          <t>C 468/24</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L8" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N8" t="n">
-        <v>114.9014088216475</v>
-      </c>
-      <c r="O8" t="n">
-        <v>631.9577485190613</v>
+          <t>GRINDERS</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ESSENTIA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>BL+60</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>KCH25.NYB</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="R8" t="n">
+        <v>334.2648778879268</v>
+      </c>
+      <c r="S8" t="n">
+        <v>118.8168121391956</v>
+      </c>
+      <c r="T8" t="n">
+        <v>644.4623636609875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>025/24</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45523</v>
+          <t>e3/24</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2024</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>320</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>45658</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ESTIMATIVA</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1063.47</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NY + 10</t>
+          <t>28/02/25</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C 465/24 ** FIXAÇÃO  MAR 25 ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
+          <t>NY + 0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>KCH25.NYB</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>KCH25.NYB</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>343.2597422218544</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1887.928582220199</v>
-      </c>
-      <c r="N9" t="n">
-        <v>114.075992944943</v>
-      </c>
-      <c r="O9" t="n">
-        <v>627.4179611971867</v>
+      <c r="Q9" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="R9" t="n">
+        <v>334.2648778879268</v>
+      </c>
+      <c r="S9" t="n">
+        <v>355.4806696874736</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1928.127076445993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>026/24</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45523</v>
+          <t>025/24</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2024</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>320</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>45717</v>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>30/01/25</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>NY + 10</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>C 466/24 ** FIXAÇÃO MAI 25 ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>C 465/24</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PETRUS</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>BL+60</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>KCH25.NYB</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>KCH25.NYB</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>343.2597422218544</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1887.928582220199</v>
-      </c>
-      <c r="N10" t="n">
-        <v>114.075992944943</v>
-      </c>
-      <c r="O10" t="n">
-        <v>627.4179611971867</v>
+      <c r="Q10" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="R10" t="n">
+        <v>334.2648778879268</v>
+      </c>
+      <c r="S10" t="n">
+        <v>111.1976363580862</v>
+      </c>
+      <c r="T10" t="n">
+        <v>603.1359558518818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>027/24</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45523</v>
+          <t>028/24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2024</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>320</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>45566</v>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NY + 25</t>
+          <t>30/01/25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>C 469/24 ** FIXAÇÃO  MAR 25 **** SPECIAL MARKS - MALA CAZARN ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
+          <t>NY -8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>KCZ24.NYB</t>
+          <t>C 467/24</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L11" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N11" t="n">
-        <v>121.250721972572</v>
-      </c>
-      <c r="O11" t="n">
-        <v>666.8789708491458</v>
+          <t>14/16</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PETRUS</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>BL+60</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>KCH25.NYB</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="R11" t="n">
+        <v>334.2648778879268</v>
+      </c>
+      <c r="S11" t="n">
+        <v>110.3510612712963</v>
+      </c>
+      <c r="T11" t="n">
+        <v>598.5441327619812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>028/24</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45523</v>
+          <t>023/24</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2024</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>320</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>45658</v>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NY -8</t>
+          <t>30/01/25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>C 467/24 ** FIXAÇÃO MAR/25 ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
+          <t>NY + 10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>C 463/24</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BENEDICTUS</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>BL+60</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>KCH25.NYB</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>KCH25.NYB</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>343.2597422218544</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1887.928582220199</v>
-      </c>
-      <c r="N12" t="n">
-        <v>113.2294178581531</v>
-      </c>
-      <c r="O12" t="n">
-        <v>622.7617982198421</v>
+      <c r="Q12" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="R12" t="n">
+        <v>334.2648778879268</v>
+      </c>
+      <c r="S12" t="n">
+        <v>111.1976363580862</v>
+      </c>
+      <c r="T12" t="n">
+        <v>603.1359558518818</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>029/24</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45523</v>
+          <t>002/24</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2023</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>22/03/24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>320</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>45689</v>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>NY -28</t>
+          <t>30/03/24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>C 468/24 ** FIXAÇÃO MAR/25 ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
+          <t>NY + 0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>KCH25.NYB</t>
+          <t>L001=201 / GS364-119</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>KCH25.NYB</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>343.2597422218544</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1887.928582220199</v>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>45493</v>
       </c>
       <c r="N13" t="n">
-        <v>121.6951687260524</v>
+        <v>1369.11</v>
       </c>
       <c r="O13" t="n">
-        <v>669.3234279932883</v>
+        <v>275</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S13" t="n">
+        <v>107.6208579081698</v>
+      </c>
+      <c r="T13" t="n">
+        <v>583.7355103036176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>030/24</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45523</v>
+          <t>004/24</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2023</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>09/05/24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>320</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>45597</v>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NY + 50</t>
+          <t>30/03/24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>C 470/24 ** FIXAÇÃO DEZ/24 ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY)</t>
+          <t>NY + 0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CERRADO FINE CUP</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1369.11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>283</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>KCZ24.NYB</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L14" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N14" t="n">
-        <v>131.8329105574461</v>
-      </c>
-      <c r="O14" t="n">
-        <v>725.0810080659535</v>
+      <c r="Q14" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S14" t="n">
+        <v>107.6208579081698</v>
+      </c>
+      <c r="T14" t="n">
+        <v>583.7355103036176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>031/24</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45510</v>
+          <t>003/24</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2023</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>22/03/24</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SLM COFFEE PTY LTDA T/AS - SOUTHLAND MERCHANTS TRUST</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>320</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>45566</v>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>USD 325</t>
+          <t>30/03/24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PO#090-24</t>
+          <t>NY + 0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>L002=239 / GS3064=81</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1369.11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>276</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>KCZ24.NYB</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L15" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N15" t="n">
-        <v>104</v>
-      </c>
-      <c r="O15" t="n">
-        <v>572</v>
+      <c r="Q15" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S15" t="n">
+        <v>107.6208579081698</v>
+      </c>
+      <c r="T15" t="n">
+        <v>583.7355103036176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>032/24</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45510</v>
+          <t>026/24</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2024</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SLM COFFEE PTY LTDA T/AS - SOUTHLAND MERCHANTS TRUST</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
         <v>320</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>45566</v>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>USD 325</t>
+          <t>30/03/25</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PO#091-24 ** 270 BAGS 84 SCA NATURAL / PULPED NATURAL, 50 BAGS 86 UP</t>
+          <t>NY + 10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>KCZ24.NYB</t>
+          <t>C 466/24</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L16" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N16" t="n">
-        <v>104</v>
-      </c>
-      <c r="O16" t="n">
-        <v>572</v>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>BENEDICTUS</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>BL+60</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>KCN25.NYB</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>248.1999969482422</v>
+      </c>
+      <c r="R16" t="n">
+        <v>328.3123968089351</v>
+      </c>
+      <c r="S16" t="n">
+        <v>109.2928424128089</v>
+      </c>
+      <c r="T16" t="n">
+        <v>592.8043538996054</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>033/24</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45540</v>
+          <t>e4/24</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2024</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>LOS BARISTAS CASA DE CAFES ELTDA</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>45566</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ESTIMATIVA</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1063.47</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BRL 2500</t>
+          <t>30/03/25</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>NY + 0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>KCZ24.NYB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L17" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.818181818181818</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>KCN25.NYB</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>248.1999969482422</v>
+      </c>
+      <c r="R17" t="n">
+        <v>328.3123968089351</v>
+      </c>
+      <c r="S17" t="n">
+        <v>349.1503846343982</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1893.791611670407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>034/24</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>45540</v>
+          <t>013/24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2023</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>17/04/24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>LOS BARISTAS CASA DE CAFES ELTDA</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>45566</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>EMPORIA GMBH</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>280</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BRL 2137</t>
+          <t>30/05/24</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>NY + 10</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1089.29</v>
+      </c>
+      <c r="O18" t="n">
+        <v>279</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>KCZ24.NYB</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L18" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.554181818181818</v>
-      </c>
-      <c r="O18" t="n">
-        <v>8.548</v>
+      <c r="Q18" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R18" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S18" t="n">
+        <v>97.87201667435455</v>
+      </c>
+      <c r="T18" t="n">
+        <v>530.8577975339807</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>035/24</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>45544</v>
+          <t>027/24</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2024</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>AW TRADING SP. Z.O.O</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>320</v>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>45597</v>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NY - 8</t>
+          <t>30/10/24</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>C497/24 ** FIXAÇÃO DEZ/24 ** DOCUMENTS: BL, INVOICE, WEIGHT, QUALITY, COFFEE REPORT AND PACKING LIST (IF NECESSARY</t>
+          <t>NY + 25</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>C 469/24</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ORTU SOLLIS</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>BL+90</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>KCZ24.NYB</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>KCZ24.NYB</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>261.4500122070312</v>
-      </c>
-      <c r="L19" t="n">
-        <v>345.8391668365558</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1902.115417601057</v>
-      </c>
-      <c r="N19" t="n">
-        <v>114.0548337348576</v>
-      </c>
-      <c r="O19" t="n">
-        <v>627.3015855417166</v>
+      <c r="Q19" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S19" t="n">
+        <v>118.203046493044</v>
+      </c>
+      <c r="T19" t="n">
+        <v>641.1332989273756</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>031/24</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2024</v>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>06/08/24</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>venda</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>4946</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>1778.255878516475</v>
-      </c>
-      <c r="O20" t="n">
-        <v>9780.407331840612</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SOUTHLAND</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>320</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>30/10/24</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>USD 325</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PO#090-24</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>BL + 30/60/90/120</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S20" t="n">
+        <v>104</v>
+      </c>
+      <c r="T20" t="n">
+        <v>564.0959777832031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>032/24</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>06/08/24</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SOUTHLAND</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>320</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>30/10/24</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>USD 325</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PO#091-24</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>BL + 30/60/90/120</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S21" t="n">
+        <v>104</v>
+      </c>
+      <c r="T21" t="n">
+        <v>564.0959777832031</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>033/24</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>05/09/24</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LOS BARISTAS</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>30/10/24</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>BRL 2500</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ENTRADA/30/60/90</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.843657889721205</v>
+      </c>
+      <c r="T22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>034/24</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>05/09/24</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LOS BARISTAS</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>30/10/24</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>BRL 2137</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ENTRADA/30/60/90</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.575958764133686</v>
+      </c>
+      <c r="T23" t="n">
+        <v>8.547999999999998</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>021/24</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>01/08/24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>XORXIOS, S.L.</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>320</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>30/10/24</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NY + 25</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SCA84</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>GRAN TERRROIR</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R24" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S24" t="n">
+        <v>118.203046493044</v>
+      </c>
+      <c r="T24" t="n">
+        <v>641.1332989273756</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>024/24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>320</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>30/11/24</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NY + 10</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>C 464/24</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PETRUS</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>BL+60</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S25" t="n">
+        <v>111.8537333421195</v>
+      </c>
+      <c r="T25" t="n">
+        <v>606.6946257531207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>030/24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19/08/24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>320</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>30/11/24</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NY + 50</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>C 470/24</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>16/18</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>TITULUS</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>BL+90</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S26" t="n">
+        <v>128.7852350779181</v>
+      </c>
+      <c r="T26" t="n">
+        <v>698.5310875511334</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>035/24</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>09/09/24</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AW TRADING</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>320</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>30/11/24</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NY - 8</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>C497/24</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>14/16</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>BL +90</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>KCZ24.NYB</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>336.3151809630307</v>
+      </c>
+      <c r="S27" t="n">
+        <v>111.0071582553296</v>
+      </c>
+      <c r="T27" t="n">
+        <v>602.1028026632201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>e1/24</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ESTIMATIVA</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1063.47</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>30/12/24</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NY + 0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>KCH25.NYB</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="R28" t="n">
+        <v>334.2648778879268</v>
+      </c>
+      <c r="S28" t="n">
+        <v>355.4806696874736</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1928.127076445993</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>e2/24</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ESTIMATIVA</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1063.47</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>31/01/25</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NY + 0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>KCH25.NYB</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="R29" t="n">
+        <v>334.2648778879268</v>
+      </c>
+      <c r="S29" t="n">
+        <v>355.4806696874736</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1928.127076445993</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>venda</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>10470</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>3577.83592227798</v>
+      </c>
+      <c r="T30" t="n">
+        <v>19406.18127812755</v>
       </c>
     </row>
   </sheetData>

--- a/resultado_vendas.xlsx
+++ b/resultado_vendas.xlsx
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R2" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S2" t="n">
-        <v>2.304572362151506</v>
+        <v>2.297667413202893</v>
       </c>
       <c r="T2" t="n">
         <v>12.5</v>
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R3" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S3" t="n">
-        <v>4.609144724303013</v>
+        <v>4.595334826405786</v>
       </c>
       <c r="T3" t="n">
         <v>25</v>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R4" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S4" t="n">
-        <v>38.70619621470051</v>
+        <v>38.59022489036856</v>
       </c>
       <c r="T4" t="n">
         <v>209.9424</v>
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R5" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S5" t="n">
-        <v>111.8537333421195</v>
+        <v>113.0177740864556</v>
       </c>
       <c r="T5" t="n">
-        <v>606.6946257531207</v>
+        <v>614.8505949829331</v>
       </c>
     </row>
     <row r="6">
@@ -965,16 +965,16 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R6" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S6" t="n">
-        <v>111.8537333421195</v>
+        <v>113.0177740864556</v>
       </c>
       <c r="T6" t="n">
-        <v>606.6946257531207</v>
+        <v>614.8505949829331</v>
       </c>
     </row>
     <row r="7">
@@ -1055,16 +1055,16 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R7" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S7" t="n">
-        <v>111.8537333421195</v>
+        <v>113.0177740864556</v>
       </c>
       <c r="T7" t="n">
-        <v>606.6946257531207</v>
+        <v>614.8505949829331</v>
       </c>
     </row>
     <row r="8">
@@ -1145,16 +1145,16 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>252.6999969482422</v>
+        <v>255.3500061035156</v>
       </c>
       <c r="R8" t="n">
-        <v>334.2648778879268</v>
+        <v>337.7702399670201</v>
       </c>
       <c r="S8" t="n">
-        <v>118.8168121391956</v>
+        <v>119.9385280045054</v>
       </c>
       <c r="T8" t="n">
-        <v>644.4623636609875</v>
+        <v>652.5015724388176</v>
       </c>
     </row>
     <row r="9">
@@ -1235,16 +1235,16 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>252.6999969482422</v>
+        <v>255.3500061035156</v>
       </c>
       <c r="R9" t="n">
-        <v>334.2648778879268</v>
+        <v>337.7702399670201</v>
       </c>
       <c r="S9" t="n">
-        <v>355.4806696874736</v>
+        <v>359.2085170977269</v>
       </c>
       <c r="T9" t="n">
-        <v>1928.127076445993</v>
+        <v>1954.202091181894</v>
       </c>
     </row>
     <row r="10">
@@ -1325,16 +1325,16 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>252.6999969482422</v>
+        <v>255.3500061035156</v>
       </c>
       <c r="R10" t="n">
-        <v>334.2648778879268</v>
+        <v>337.7702399670201</v>
       </c>
       <c r="S10" t="n">
-        <v>111.1976363580862</v>
+        <v>112.3193522233961</v>
       </c>
       <c r="T10" t="n">
-        <v>603.1359558518818</v>
+        <v>611.0509705298559</v>
       </c>
     </row>
     <row r="11">
@@ -1415,16 +1415,16 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>252.6999969482422</v>
+        <v>255.3500061035156</v>
       </c>
       <c r="R11" t="n">
-        <v>334.2648778879268</v>
+        <v>337.7702399670201</v>
       </c>
       <c r="S11" t="n">
-        <v>110.3510612712963</v>
+        <v>111.4727771366061</v>
       </c>
       <c r="T11" t="n">
-        <v>598.5441327619812</v>
+        <v>606.4453480955267</v>
       </c>
     </row>
     <row r="12">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>252.6999969482422</v>
+        <v>255.3500061035156</v>
       </c>
       <c r="R12" t="n">
-        <v>334.2648778879268</v>
+        <v>337.7702399670201</v>
       </c>
       <c r="S12" t="n">
-        <v>111.1976363580862</v>
+        <v>112.3193522233961</v>
       </c>
       <c r="T12" t="n">
-        <v>603.1359558518818</v>
+        <v>611.0509705298559</v>
       </c>
     </row>
     <row r="13">
@@ -1589,16 +1589,16 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R13" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S13" t="n">
-        <v>107.6208579081698</v>
+        <v>108.784898652506</v>
       </c>
       <c r="T13" t="n">
-        <v>583.7355103036176</v>
+        <v>591.8224828112876</v>
       </c>
     </row>
     <row r="14">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R14" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S14" t="n">
-        <v>107.6208579081698</v>
+        <v>108.784898652506</v>
       </c>
       <c r="T14" t="n">
-        <v>583.7355103036176</v>
+        <v>591.8224828112876</v>
       </c>
     </row>
     <row r="15">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R15" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S15" t="n">
-        <v>107.6208579081698</v>
+        <v>108.784898652506</v>
       </c>
       <c r="T15" t="n">
-        <v>583.7355103036176</v>
+        <v>591.8224828112876</v>
       </c>
     </row>
     <row r="16">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>248.1999969482422</v>
+        <v>250.6499938964844</v>
       </c>
       <c r="R16" t="n">
-        <v>328.3123968089351</v>
+        <v>331.5531880262682</v>
       </c>
       <c r="S16" t="n">
-        <v>109.2928424128089</v>
+        <v>110.3298956023555</v>
       </c>
       <c r="T16" t="n">
-        <v>592.8043538996054</v>
+        <v>600.227729698694</v>
       </c>
     </row>
     <row r="17">
@@ -1937,16 +1937,16 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>248.1999969482422</v>
+        <v>250.6499938964844</v>
       </c>
       <c r="R17" t="n">
-        <v>328.3123968089351</v>
+        <v>331.5531880262682</v>
       </c>
       <c r="S17" t="n">
-        <v>349.1503846343982</v>
+        <v>352.5968688702955</v>
       </c>
       <c r="T17" t="n">
-        <v>1893.791611670407</v>
+        <v>1918.232741410907</v>
       </c>
     </row>
     <row r="18">
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R18" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S18" t="n">
-        <v>97.87201667435455</v>
+        <v>98.89055232564868</v>
       </c>
       <c r="T18" t="n">
-        <v>530.8577975339807</v>
+        <v>537.9942706100665</v>
       </c>
     </row>
     <row r="19">
@@ -2111,16 +2111,16 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R19" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S19" t="n">
-        <v>118.203046493044</v>
+        <v>119.3670872373801</v>
       </c>
       <c r="T19" t="n">
-        <v>641.1332989273756</v>
+        <v>649.3927632404012</v>
       </c>
     </row>
     <row r="20">
@@ -2201,16 +2201,16 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R20" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S20" t="n">
         <v>104</v>
       </c>
       <c r="T20" t="n">
-        <v>564.0959777832031</v>
+        <v>565.7911987304688</v>
       </c>
     </row>
     <row r="21">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R21" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S21" t="n">
         <v>104</v>
       </c>
       <c r="T21" t="n">
-        <v>564.0959777832031</v>
+        <v>565.7911987304688</v>
       </c>
     </row>
     <row r="22">
@@ -2381,13 +2381,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R22" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S22" t="n">
-        <v>1.843657889721205</v>
+        <v>1.838133930562314</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2471,16 +2471,16 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R23" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S23" t="n">
-        <v>1.575958764133686</v>
+        <v>1.571236883844666</v>
       </c>
       <c r="T23" t="n">
-        <v>8.547999999999998</v>
+        <v>8.548</v>
       </c>
     </row>
     <row r="24">
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R24" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S24" t="n">
-        <v>118.203046493044</v>
+        <v>119.3670872373801</v>
       </c>
       <c r="T24" t="n">
-        <v>641.1332989273756</v>
+        <v>649.3927632404012</v>
       </c>
     </row>
     <row r="25">
@@ -2651,16 +2651,16 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R25" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S25" t="n">
-        <v>111.8537333421195</v>
+        <v>113.0177740864556</v>
       </c>
       <c r="T25" t="n">
-        <v>606.6946257531207</v>
+        <v>614.8505949829331</v>
       </c>
     </row>
     <row r="26">
@@ -2741,16 +2741,16 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R26" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S26" t="n">
-        <v>128.7852350779181</v>
+        <v>129.9492758222542</v>
       </c>
       <c r="T26" t="n">
-        <v>698.5310875511334</v>
+        <v>706.9630436695147</v>
       </c>
     </row>
     <row r="27">
@@ -2831,16 +2831,16 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>254.25</v>
+        <v>257</v>
       </c>
       <c r="R27" t="n">
-        <v>336.3151809630307</v>
+        <v>339.9528082890812</v>
       </c>
       <c r="S27" t="n">
-        <v>111.0071582553296</v>
+        <v>112.1711989996657</v>
       </c>
       <c r="T27" t="n">
-        <v>602.1028026632201</v>
+        <v>610.244972548604</v>
       </c>
     </row>
     <row r="28">
@@ -2921,16 +2921,16 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>252.6999969482422</v>
+        <v>255.3500061035156</v>
       </c>
       <c r="R28" t="n">
-        <v>334.2648778879268</v>
+        <v>337.7702399670201</v>
       </c>
       <c r="S28" t="n">
-        <v>355.4806696874736</v>
+        <v>359.2085170977269</v>
       </c>
       <c r="T28" t="n">
-        <v>1928.127076445993</v>
+        <v>1954.202091181894</v>
       </c>
     </row>
     <row r="29">
@@ -3011,16 +3011,16 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>252.6999969482422</v>
+        <v>255.3500061035156</v>
       </c>
       <c r="R29" t="n">
-        <v>334.2648778879268</v>
+        <v>337.7702399670201</v>
       </c>
       <c r="S29" t="n">
-        <v>355.4806696874736</v>
+        <v>359.2085170977269</v>
       </c>
       <c r="T29" t="n">
-        <v>1928.127076445993</v>
+        <v>1954.202091181894</v>
       </c>
     </row>
     <row r="30">
@@ -3049,10 +3049,10 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>3577.83592227798</v>
+        <v>3611.665917223789</v>
       </c>
       <c r="T30" t="n">
-        <v>19406.18127812755</v>
+        <v>19648.54604538486</v>
       </c>
     </row>
   </sheetData>
